--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N2">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q2">
-        <v>1.439509407901</v>
+        <v>1.237646975800667</v>
       </c>
       <c r="R2">
-        <v>12.955584671109</v>
+        <v>11.138822782206</v>
       </c>
       <c r="S2">
-        <v>0.01575782736760239</v>
+        <v>0.01458654428861759</v>
       </c>
       <c r="T2">
-        <v>0.0157578273676024</v>
+        <v>0.0145865442886176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P3">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q3">
-        <v>8.273670736864</v>
+        <v>7.444646453365333</v>
       </c>
       <c r="R3">
-        <v>74.46303663177601</v>
+        <v>67.001818080288</v>
       </c>
       <c r="S3">
-        <v>0.09056910253750348</v>
+        <v>0.08774041978720346</v>
       </c>
       <c r="T3">
-        <v>0.09056910253750351</v>
+        <v>0.08774041978720347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N4">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q4">
-        <v>3.35651411281</v>
+        <v>3.434635721706</v>
       </c>
       <c r="R4">
-        <v>30.20862701529</v>
+        <v>30.911721495354</v>
       </c>
       <c r="S4">
-        <v>0.03674263582876049</v>
+        <v>0.04047960933086105</v>
       </c>
       <c r="T4">
-        <v>0.0367426358287605</v>
+        <v>0.04047960933086105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N5">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q5">
-        <v>2.515091598414</v>
+        <v>2.786898866411333</v>
       </c>
       <c r="R5">
-        <v>22.635824385726</v>
+        <v>25.082089797702</v>
       </c>
       <c r="S5">
-        <v>0.0275318653730123</v>
+        <v>0.03284557271794627</v>
       </c>
       <c r="T5">
-        <v>0.02753186537301231</v>
+        <v>0.03284557271794628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N6">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O6">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P6">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q6">
-        <v>2.346523484415</v>
+        <v>1.716796127587333</v>
       </c>
       <c r="R6">
-        <v>21.118711359735</v>
+        <v>15.451165148286</v>
       </c>
       <c r="S6">
-        <v>0.02568660668592128</v>
+        <v>0.02023365567017154</v>
       </c>
       <c r="T6">
-        <v>0.02568660668592129</v>
+        <v>0.02023365567017154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N7">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q7">
-        <v>3.99128422560189</v>
+        <v>3.813722496811778</v>
       </c>
       <c r="R7">
-        <v>35.92155803041701</v>
+        <v>34.323502471306</v>
       </c>
       <c r="S7">
-        <v>0.04369125165619939</v>
+        <v>0.04494741488642541</v>
       </c>
       <c r="T7">
-        <v>0.0436912516561994</v>
+        <v>0.04494741488642542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P8">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q8">
         <v>22.94015677745422</v>
@@ -948,10 +948,10 @@
         <v>206.461410997088</v>
       </c>
       <c r="S8">
-        <v>0.2511182131223128</v>
+        <v>0.2703659600555272</v>
       </c>
       <c r="T8">
-        <v>0.2511182131223129</v>
+        <v>0.2703659600555273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N9">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q9">
-        <v>9.306505228752222</v>
+        <v>10.583589485806</v>
       </c>
       <c r="R9">
-        <v>83.75854705877001</v>
+        <v>95.25230537225401</v>
       </c>
       <c r="S9">
-        <v>0.1018751958031331</v>
+        <v>0.1247350818010003</v>
       </c>
       <c r="T9">
-        <v>0.1018751958031331</v>
+        <v>0.1247350818010003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N10">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q10">
-        <v>6.973518455382</v>
+        <v>8.587633720266888</v>
       </c>
       <c r="R10">
-        <v>62.76166609843801</v>
+        <v>77.28870348240201</v>
       </c>
       <c r="S10">
-        <v>0.07633677095930183</v>
+        <v>0.1012113325078521</v>
       </c>
       <c r="T10">
-        <v>0.07633677095930186</v>
+        <v>0.1012113325078521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N11">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O11">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P11">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q11">
-        <v>6.506134740728332</v>
+        <v>5.290187058376222</v>
       </c>
       <c r="R11">
-        <v>58.555212666555</v>
+        <v>47.61168352538601</v>
       </c>
       <c r="S11">
-        <v>0.07122047797120645</v>
+        <v>0.06234859320215763</v>
       </c>
       <c r="T11">
-        <v>0.07122047797120648</v>
+        <v>0.06234859320215765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N12">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q12">
-        <v>1.902864719231445</v>
+        <v>1.244228845264667</v>
       </c>
       <c r="R12">
-        <v>17.125782473083</v>
+        <v>11.198059607382</v>
       </c>
       <c r="S12">
-        <v>0.02083002277371186</v>
+        <v>0.01466411627183714</v>
       </c>
       <c r="T12">
-        <v>0.02083002277371186</v>
+        <v>0.01466411627183715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.692192</v>
       </c>
       <c r="O13">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P13">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q13">
-        <v>10.93683449187911</v>
+        <v>7.484237461237332</v>
       </c>
       <c r="R13">
-        <v>98.431510426912</v>
+        <v>67.35813715113601</v>
       </c>
       <c r="S13">
-        <v>0.119721864216481</v>
+        <v>0.08820702779501791</v>
       </c>
       <c r="T13">
-        <v>0.119721864216481</v>
+        <v>0.08820702779501792</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N14">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q14">
-        <v>4.436922919581111</v>
+        <v>3.452901288882</v>
       </c>
       <c r="R14">
-        <v>39.93230627622999</v>
+        <v>31.076111599938</v>
       </c>
       <c r="S14">
-        <v>0.04856950918581695</v>
+        <v>0.04069488194880373</v>
       </c>
       <c r="T14">
-        <v>0.04856950918581696</v>
+        <v>0.04069488194880373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N15">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q15">
-        <v>3.324659805618</v>
+        <v>2.801719736099333</v>
       </c>
       <c r="R15">
-        <v>29.921938250562</v>
+        <v>25.215477624894</v>
       </c>
       <c r="S15">
-        <v>0.03639393739657863</v>
+        <v>0.03302024714153138</v>
       </c>
       <c r="T15">
-        <v>0.03639393739657864</v>
+        <v>0.03302024714153139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5144246666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.543274</v>
+      </c>
+      <c r="O16">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="P16">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="Q16">
+        <v>1.725926136571333</v>
+      </c>
+      <c r="R16">
+        <v>15.533335229142</v>
+      </c>
+      <c r="S16">
+        <v>0.02034125927847385</v>
+      </c>
+      <c r="T16">
+        <v>0.02034125927847385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3708513333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.112554</v>
+      </c>
+      <c r="O17">
+        <v>0.07446453063452614</v>
+      </c>
+      <c r="P17">
+        <v>0.07446453063452615</v>
+      </c>
+      <c r="Q17">
+        <v>0.02260833345111112</v>
+      </c>
+      <c r="R17">
+        <v>0.20347500106</v>
+      </c>
+      <c r="S17">
+        <v>0.0002664551876459966</v>
+      </c>
+      <c r="T17">
+        <v>0.0002664551876459967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.230730666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.692192</v>
+      </c>
+      <c r="O18">
+        <v>0.4479161786269527</v>
+      </c>
+      <c r="P18">
+        <v>0.4479161786269528</v>
+      </c>
+      <c r="Q18">
+        <v>0.1359927772088889</v>
+      </c>
+      <c r="R18">
+        <v>1.22393499488</v>
+      </c>
+      <c r="S18">
+        <v>0.001602770989204153</v>
+      </c>
+      <c r="T18">
+        <v>0.001602770989204153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6326649999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.897995</v>
-      </c>
-      <c r="O16">
-        <v>0.1308618037795856</v>
-      </c>
-      <c r="P16">
-        <v>0.1308618037795857</v>
-      </c>
-      <c r="Q16">
-        <v>3.101832281771666</v>
-      </c>
-      <c r="R16">
-        <v>27.916490535945</v>
-      </c>
-      <c r="S16">
-        <v>0.03395471912245791</v>
-      </c>
-      <c r="T16">
-        <v>0.03395471912245791</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.029162</v>
+      </c>
+      <c r="N19">
+        <v>3.087486</v>
+      </c>
+      <c r="O19">
+        <v>0.2066490218278579</v>
+      </c>
+      <c r="P19">
+        <v>0.2066490218278579</v>
+      </c>
+      <c r="Q19">
+        <v>0.06274114606</v>
+      </c>
+      <c r="R19">
+        <v>0.5646703145400001</v>
+      </c>
+      <c r="S19">
+        <v>0.0007394487471928444</v>
+      </c>
+      <c r="T19">
+        <v>0.0007394487471928442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8350726666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.505218</v>
+      </c>
+      <c r="O20">
+        <v>0.1676771487111334</v>
+      </c>
+      <c r="P20">
+        <v>0.1676771487111334</v>
+      </c>
+      <c r="Q20">
+        <v>0.05090881333555556</v>
+      </c>
+      <c r="R20">
+        <v>0.45817932002</v>
+      </c>
+      <c r="S20">
+        <v>0.0005999963438036522</v>
+      </c>
+      <c r="T20">
+        <v>0.0005999963438036522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5144246666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.543274</v>
+      </c>
+      <c r="O21">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="P21">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="Q21">
+        <v>0.03136104242888889</v>
+      </c>
+      <c r="R21">
+        <v>0.28224938186</v>
+      </c>
+      <c r="S21">
+        <v>0.0003696120487267924</v>
+      </c>
+      <c r="T21">
+        <v>0.0003696120487267924</v>
       </c>
     </row>
   </sheetData>
